--- a/EOExp05/EOExp05.xlsx
+++ b/EOExp05/EOExp05.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whyu/Desktop/大三下/光電實驗/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ian\NTU\1092\Photonics Experiment\EOExp\EOExp05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979E6AF8-1FD4-3947-9831-317A89E3C553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA08DD8-8C9A-4F29-B771-C65E8AA8C000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="17100" xr2:uid="{A8B88AF3-C993-CB43-AD94-A0C996677A21}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{A8B88AF3-C993-CB43-AD94-A0C996677A21}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Market LED" sheetId="1" r:id="rId1"/>
+    <sheet name="Crystal LED" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,13 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>I mA</t>
+    <t>I (mA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V  V</t>
+    <t>V  (V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V(V)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,7 +89,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -100,7 +105,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -399,12 +404,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10</v>
       </c>
@@ -420,7 +425,7 @@
         <v>2.9419</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>9</v>
       </c>
@@ -428,7 +433,7 @@
         <v>2.9188000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>8</v>
       </c>
@@ -436,7 +441,7 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>7</v>
       </c>
@@ -444,7 +449,7 @@
         <v>2.8698000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -452,7 +457,7 @@
         <v>2.8426</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -460,7 +465,7 @@
         <v>2.8132000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4</v>
       </c>
@@ -468,7 +473,7 @@
         <v>2.7808999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -476,7 +481,7 @@
         <v>2.7446000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -484,12 +489,117 @@
         <v>2.7019000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>2.6465000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91BD8CD-B73C-41D4-BFC6-13796F6E8924}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>3.65</v>
       </c>
     </row>
   </sheetData>
